--- a/pruebas/tiempos_locks.xlsx
+++ b/pruebas/tiempos_locks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>sección critica normal</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>SECCION CRÍTICA NORMAL - IMAGEN 2.PNG (3000X2800)</t>
+  </si>
+  <si>
+    <t>speed-up</t>
+  </si>
+  <si>
+    <t>Eficiencia</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,6 +216,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,25 +581,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="48394240"/>
-        <c:axId val="48395776"/>
+        <c:axId val="71069696"/>
+        <c:axId val="71071232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48394240"/>
+        <c:axId val="71069696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48395776"/>
+        <c:crossAx val="71071232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48395776"/>
+        <c:axId val="71071232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +607,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48394240"/>
+        <c:crossAx val="71069696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -613,7 +620,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -969,25 +976,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47776512"/>
-        <c:axId val="47778048"/>
+        <c:axId val="68752128"/>
+        <c:axId val="68753664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47776512"/>
+        <c:axId val="68752128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47778048"/>
+        <c:crossAx val="68753664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47778048"/>
+        <c:axId val="68753664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -995,7 +1002,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47776512"/>
+        <c:crossAx val="68752128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1008,7 +1015,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1108,25 +1115,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47802240"/>
-        <c:axId val="47803776"/>
+        <c:axId val="68777856"/>
+        <c:axId val="68779392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47802240"/>
+        <c:axId val="68777856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47803776"/>
+        <c:crossAx val="68779392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47803776"/>
+        <c:axId val="68779392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1141,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47802240"/>
+        <c:crossAx val="68777856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1147,7 +1154,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1247,25 +1254,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49941504"/>
-        <c:axId val="49955584"/>
+        <c:axId val="72293376"/>
+        <c:axId val="72295168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49941504"/>
+        <c:axId val="72293376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49955584"/>
+        <c:crossAx val="72295168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49955584"/>
+        <c:axId val="72295168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1280,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49941504"/>
+        <c:crossAx val="72293376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1286,7 +1293,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1789,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ128"/>
+  <dimension ref="A1:AK128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="N18" sqref="B13:N18"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1827,13 +1834,18 @@
     <col min="62" max="62" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="21">
+    <row r="1" spans="1:37" ht="21">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="3" spans="1:36" ht="21">
+    <row r="2" spans="1:37">
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="21">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1843,23 +1855,176 @@
       <c r="W3" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="Z3">
+        <f>$X$8/X8</f>
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AK3" si="0">$X$8/Y8</f>
+        <v>1.5911761902492489</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="0"/>
+        <v>2.4590706062194037</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="0"/>
+        <v>3.9601995065711435</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="0"/>
+        <v>4.1823620672269008</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>5.0795069534353354</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="0"/>
+        <v>5.6502042187437853</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="0"/>
+        <v>5.5178309216946646</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="0"/>
+        <v>5.855037721091894</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="0"/>
+        <v>4.4630674887630111</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>4.0500732982641923</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" si="0"/>
+        <v>4.1755962430745752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="Z4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="18"/>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="20">
+        <f>Z3/X7</f>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="20">
+        <f t="shared" ref="AA5:AK5" si="1">AA3/Y7</f>
+        <v>0.79558809512462447</v>
+      </c>
+      <c r="AB5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.61476765155485091</v>
+      </c>
+      <c r="AC5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.49502493832139294</v>
+      </c>
+      <c r="AD5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2613976292016813</v>
+      </c>
+      <c r="AE5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.25397534767176677</v>
+      </c>
+      <c r="AF5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.23542517578099106</v>
+      </c>
+      <c r="AG5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.19706539006052373</v>
+      </c>
+      <c r="AH5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.18296992878412169</v>
+      </c>
+      <c r="AI5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.12397409691008364</v>
+      </c>
+      <c r="AJ5" s="20">
+        <f t="shared" si="1"/>
+        <v>0.10125183245660481</v>
+      </c>
+      <c r="AK5" s="20">
+        <f t="shared" si="1"/>
+        <v>9.489991461533126E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="18"/>
+      <c r="C6">
+        <f>$B$17/C17</f>
+        <v>1.6240364467736781</v>
+      </c>
+      <c r="D6">
+        <f>$B$17/D17</f>
+        <v>2.5201666811097954</v>
+      </c>
+      <c r="E6">
+        <f>$B$17/E17</f>
+        <v>3.1163011785954216</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:N6" si="2">$B$17/F17</f>
+        <v>3.5142276989559162</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>4.3710701721368181</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>5.1365221460704689</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>5.694662135530729</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>6.2806774016998732</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>5.9338916336912542</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>4.8763442054507014</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>4.6455048632235458</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>4.6455048632235458</v>
+      </c>
       <c r="V6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" s="18"/>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
       <c r="V7" s="10" t="s">
         <v>1</v>
       </c>
@@ -1906,8 +2071,56 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" s="19"/>
+      <c r="C8" s="20">
+        <f>C6/C12</f>
+        <v>0.81201822338683904</v>
+      </c>
+      <c r="D8" s="20">
+        <f>D6/D12</f>
+        <v>0.63004167027744884</v>
+      </c>
+      <c r="E8" s="20">
+        <f>E6/E12</f>
+        <v>0.38953764732442769</v>
+      </c>
+      <c r="F8" s="20">
+        <f>F6/F12</f>
+        <v>0.21963923118474477</v>
+      </c>
+      <c r="G8" s="20">
+        <f>G6/G12</f>
+        <v>0.21855350860684092</v>
+      </c>
+      <c r="H8" s="20">
+        <f>H6/H12</f>
+        <v>0.21402175608626953</v>
+      </c>
+      <c r="I8" s="20">
+        <f>I6/I12</f>
+        <v>0.2033807905546689</v>
+      </c>
+      <c r="J8" s="20">
+        <f>J6/J12</f>
+        <v>0.19627116880312104</v>
+      </c>
+      <c r="K8" s="20">
+        <f>K6/K12</f>
+        <v>0.1648303231580904</v>
+      </c>
+      <c r="L8" s="20">
+        <f>L6/L12</f>
+        <v>0.12190860513626753</v>
+      </c>
+      <c r="M8" s="20">
+        <f>M6/M12</f>
+        <v>0.10557965598235332</v>
+      </c>
+      <c r="N8" s="20">
+        <f>N6/N12</f>
+        <v>9.6781351317157205E-2</v>
+      </c>
       <c r="V8" s="6"/>
       <c r="W8" s="1">
         <v>4</v>
@@ -1917,55 +2130,55 @@
         <v>16.693824999999997</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" ref="Y8:AJ8" si="0">SUM(Y19:Y22)/4</f>
+        <f t="shared" ref="Y8:AJ8" si="3">SUM(Y19:Y22)/4</f>
         <v>10.4915</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.7886725000000006</v>
       </c>
       <c r="AA8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.2153999999999998</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9914825</v>
       </c>
       <c r="AC8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.286505</v>
       </c>
       <c r="AD8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.9545524999999997</v>
       </c>
       <c r="AE8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.0254325000000004</v>
       </c>
       <c r="AF8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8511899999999999</v>
       </c>
       <c r="AG8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.7404375000000001</v>
       </c>
       <c r="AH8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.1218575</v>
       </c>
       <c r="AI8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9979499999999999</v>
       </c>
       <c r="AJ8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9101349999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="V9" s="18"/>
       <c r="W9" s="1">
         <v>8</v>
@@ -1975,35 +2188,35 @@
         <v>16.644925000000001</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" ref="Y9:AJ9" si="1">SUM(Y23:Y26)/4</f>
+        <f t="shared" ref="Y9:AJ9" si="4">SUM(Y23:Y26)/4</f>
         <v>10.641249999999999</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.0314599999999992</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.7330350000000001</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.9319025000000001</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.8729799999999996</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.2777500000000002</v>
       </c>
       <c r="AE9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.9566325</v>
       </c>
       <c r="AF9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.7245775000000001</v>
       </c>
       <c r="AG9" s="2">
@@ -2019,11 +2232,11 @@
         <v>4.0581825</v>
       </c>
       <c r="AJ9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.9087750000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="V10" s="18"/>
       <c r="W10" s="1">
         <v>16</v>
@@ -2037,51 +2250,51 @@
         <v>10.350375</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" ref="Z10:AJ10" si="2">SUM(Z27:Z30)/4</f>
+        <f t="shared" ref="Z10:AJ10" si="5">SUM(Z27:Z30)/4</f>
         <v>6.8615674999999996</v>
       </c>
       <c r="AA10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.7232150000000006</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.8894900000000003</v>
       </c>
       <c r="AC10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.8780049999999999</v>
       </c>
       <c r="AD10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.2930250000000001</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.9317299999999999</v>
       </c>
       <c r="AF10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.8042750000000001</v>
       </c>
       <c r="AG10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.2854175000000003</v>
       </c>
       <c r="AH10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.7873874999999999</v>
       </c>
       <c r="AI10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.0522774999999998</v>
       </c>
       <c r="AJ10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.7707050000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="V11" s="19"/>
       <c r="W11" s="1">
         <v>24</v>
@@ -2091,55 +2304,55 @@
         <v>16.605874999999997</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" ref="Y11:AJ11" si="3">SUM(Y31:Y34)/4</f>
+        <f t="shared" ref="Y11:AJ11" si="6">SUM(Y31:Y34)/4</f>
         <v>10.52365</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6.8501300000000001</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.4237299999999999</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2639800000000001</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.18608</v>
       </c>
       <c r="AD11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.3207825</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9160325000000005</v>
       </c>
       <c r="AF11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.7028650000000001</v>
       </c>
       <c r="AG11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.4775925000000001</v>
       </c>
       <c r="AH11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.9793175000000005</v>
       </c>
       <c r="AI11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.8251900000000001</v>
       </c>
       <c r="AJ11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.6834049999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -2190,108 +2403,108 @@
         <v>16.787624999999998</v>
       </c>
       <c r="Y12" s="4">
-        <f t="shared" ref="Y12:AJ12" si="4">SUM(Y35:Y38)/4</f>
+        <f t="shared" ref="Y12:AJ12" si="7">SUM(Y35:Y38)/4</f>
         <v>10.349675</v>
       </c>
       <c r="Z12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.7278400000000005</v>
       </c>
       <c r="AA12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>5.4411025000000004</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.8656924999999998</v>
       </c>
       <c r="AC12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.8942424999999998</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.302575</v>
       </c>
       <c r="AE12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9578999999999995</v>
       </c>
       <c r="AF12" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.0014449999999995</v>
       </c>
       <c r="AG12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.8479074999999998</v>
       </c>
       <c r="AH12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.8533949999999999</v>
       </c>
       <c r="AI12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.7498250000000004</v>
       </c>
       <c r="AJ12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.8168099999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <f>SUM(C21:C24)/4</f>
+        <f t="shared" ref="B13:N13" si="8">SUM(C21:C24)/4</f>
         <v>16.728249999999999</v>
       </c>
       <c r="C13" s="2">
-        <f>SUM(D21:D24)/4</f>
+        <f t="shared" si="8"/>
         <v>10.6502</v>
       </c>
       <c r="D13" s="2">
-        <f>SUM(E21:E24)/4</f>
+        <f t="shared" si="8"/>
         <v>7.1762500000000005</v>
       </c>
       <c r="E13" s="2">
-        <f>SUM(F21:F24)/4</f>
+        <f t="shared" si="8"/>
         <v>4.6960699999999997</v>
       </c>
       <c r="F13" s="2">
-        <f>SUM(G21:G24)/4</f>
+        <f t="shared" si="8"/>
         <v>5.7497974999999997</v>
       </c>
       <c r="G13" s="2">
-        <f>SUM(H21:H24)/4</f>
+        <f t="shared" si="8"/>
         <v>6.1633975000000003</v>
       </c>
       <c r="H13" s="2">
-        <f>SUM(I21:I24)/4</f>
+        <f t="shared" si="8"/>
         <v>6.5846225</v>
       </c>
       <c r="I13" s="2">
-        <f>SUM(J21:J24)/4</f>
+        <f t="shared" si="8"/>
         <v>8.1836824999999997</v>
       </c>
       <c r="J13" s="2">
-        <f>SUM(K21:K24)/4</f>
+        <f t="shared" si="8"/>
         <v>8.8246249999999993</v>
       </c>
       <c r="K13" s="2">
-        <f>SUM(L21:L24)/4</f>
+        <f t="shared" si="8"/>
         <v>9.2063074999999994</v>
       </c>
       <c r="L13" s="2">
-        <f>SUM(M21:M24)/4</f>
+        <f t="shared" si="8"/>
         <v>9.8125224999999983</v>
       </c>
       <c r="M13" s="2">
-        <f>SUM(N21:N24)/4</f>
+        <f t="shared" si="8"/>
         <v>10.410225000000001</v>
       </c>
       <c r="N13" s="2">
-        <f>SUM(O21:O24)/4</f>
+        <f t="shared" si="8"/>
         <v>11.870249999999999</v>
       </c>
       <c r="W13" s="1">
@@ -2302,222 +2515,222 @@
         <v>16.733575000000002</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" ref="Y13:AJ13" si="5">SUM(Y39:Y42)/4</f>
+        <f t="shared" ref="Y13:AJ13" si="9">SUM(Y39:Y42)/4</f>
         <v>10.331775</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.6038274999999995</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.4042749999999993</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.8399600000000005</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.8867350000000003</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.2938825</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.9323125000000001</v>
       </c>
       <c r="AF13" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.7989549999999999</v>
       </c>
       <c r="AG13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.2813000000000003</v>
       </c>
       <c r="AH13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.8134924999999997</v>
       </c>
       <c r="AI13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.7393749999999999</v>
       </c>
       <c r="AJ13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.661905</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <f>SUM(C25:C28)/4</f>
+        <f t="shared" ref="B14:N14" si="10">SUM(C25:C28)/4</f>
         <v>16.8612</v>
       </c>
       <c r="C14" s="2">
-        <f>SUM(D25:D28)/4</f>
+        <f t="shared" si="10"/>
         <v>10.608575</v>
       </c>
       <c r="D14" s="2">
-        <f>SUM(E25:E28)/4</f>
+        <f t="shared" si="10"/>
         <v>7.0149375000000003</v>
       </c>
       <c r="E14" s="2">
-        <f>SUM(F25:F28)/4</f>
+        <f t="shared" si="10"/>
         <v>5.7265449999999998</v>
       </c>
       <c r="F14" s="2">
-        <f>SUM(G25:G28)/4</f>
+        <f t="shared" si="10"/>
         <v>4.1063700000000001</v>
       </c>
       <c r="G14" s="2">
-        <f>SUM(H25:H28)/4</f>
+        <f t="shared" si="10"/>
         <v>4.6753974999999999</v>
       </c>
       <c r="H14" s="2">
-        <f>SUM(I25:I28)/4</f>
+        <f t="shared" si="10"/>
         <v>4.826225</v>
       </c>
       <c r="I14" s="2">
-        <f>SUM(J25:J28)/4</f>
+        <f t="shared" si="10"/>
         <v>3.6355</v>
       </c>
       <c r="J14" s="2">
-        <f>SUM(K25:K28)/4</f>
+        <f t="shared" si="10"/>
         <v>3.6016849999999998</v>
       </c>
       <c r="K14" s="2">
-        <f>SUM(L25:L28)/4</f>
+        <f t="shared" si="10"/>
         <v>5.6030549999999995</v>
       </c>
       <c r="L14" s="2">
-        <f>SUM(M25:M28)/4</f>
+        <f t="shared" si="10"/>
         <v>3.7560125000000002</v>
       </c>
       <c r="M14" s="2">
-        <f>SUM(N25:N28)/4</f>
+        <f t="shared" si="10"/>
         <v>6.1439374999999998</v>
       </c>
       <c r="N14" s="2">
-        <f>SUM(O25:O28)/4</f>
+        <f t="shared" si="10"/>
         <v>6.7520074999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <f>SUM(C29:C32)/4</f>
+        <f t="shared" ref="B15:N15" si="11">SUM(C29:C32)/4</f>
         <v>16.823450000000001</v>
       </c>
       <c r="C15" s="2">
-        <f>SUM(D29:D32)/4</f>
+        <f t="shared" si="11"/>
         <v>10.469374999999999</v>
       </c>
       <c r="D15" s="2">
-        <f>SUM(E29:E32)/4</f>
+        <f t="shared" si="11"/>
         <v>6.9907774999999992</v>
       </c>
       <c r="E15" s="2">
-        <f>SUM(F29:F32)/4</f>
+        <f t="shared" si="11"/>
         <v>5.79786</v>
       </c>
       <c r="F15" s="2">
-        <f>SUM(G29:G32)/4</f>
+        <f t="shared" si="11"/>
         <v>4.8612375000000005</v>
       </c>
       <c r="G15" s="2">
-        <f>SUM(H29:H32)/4</f>
+        <f t="shared" si="11"/>
         <v>3.9258649999999999</v>
       </c>
       <c r="H15" s="2">
-        <f>SUM(I29:I32)/4</f>
+        <f t="shared" si="11"/>
         <v>3.3248799999999998</v>
       </c>
       <c r="I15" s="2">
-        <f>SUM(J29:J32)/4</f>
+        <f t="shared" si="11"/>
         <v>3.5174124999999998</v>
       </c>
       <c r="J15" s="12">
-        <f>SUM(K29:K32)/4</f>
+        <f t="shared" si="11"/>
         <v>2.8200525000000001</v>
       </c>
       <c r="K15" s="2">
-        <f>SUM(L29:L32)/4</f>
+        <f t="shared" si="11"/>
         <v>3.6279425000000001</v>
       </c>
       <c r="L15" s="2">
-        <f>SUM(M29:M32)/4</f>
+        <f t="shared" si="11"/>
         <v>2.7467775000000003</v>
       </c>
       <c r="M15" s="2">
-        <f>SUM(N29:N32)/4</f>
+        <f t="shared" si="11"/>
         <v>3.8686449999999999</v>
       </c>
       <c r="N15" s="2">
-        <f>SUM(O29:O32)/4</f>
+        <f t="shared" si="11"/>
         <v>3.2272699999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="A16" s="1">
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <f>SUM(C33:C36)/4</f>
+        <f t="shared" ref="B16:N16" si="12">SUM(C33:C36)/4</f>
         <v>16.87135</v>
       </c>
       <c r="C16" s="2">
-        <f>SUM(D33:D36)/4</f>
+        <f t="shared" si="12"/>
         <v>10.599024999999999</v>
       </c>
       <c r="D16" s="2">
-        <f>SUM(E33:E36)/4</f>
+        <f t="shared" si="12"/>
         <v>6.8347549999999995</v>
       </c>
       <c r="E16" s="2">
-        <f>SUM(F33:F36)/4</f>
+        <f t="shared" si="12"/>
         <v>5.4506499999999996</v>
       </c>
       <c r="F16" s="2">
-        <f>SUM(G33:G36)/4</f>
+        <f t="shared" si="12"/>
         <v>3.2828675</v>
       </c>
       <c r="G16" s="2">
-        <f>SUM(H33:H36)/4</f>
+        <f t="shared" si="12"/>
         <v>3.2185674999999998</v>
       </c>
       <c r="H16" s="2">
-        <f>SUM(I33:I36)/4</f>
+        <f t="shared" si="12"/>
         <v>3.3266475</v>
       </c>
       <c r="I16" s="2">
-        <f>SUM(J33:J36)/4</f>
+        <f t="shared" si="12"/>
         <v>2.9805299999999999</v>
       </c>
       <c r="J16" s="12">
-        <f>SUM(K33:K36)/4</f>
+        <f t="shared" si="12"/>
         <v>2.76498</v>
       </c>
       <c r="K16" s="2">
-        <f>SUM(L33:L36)/4</f>
+        <f t="shared" si="12"/>
         <v>2.693425</v>
       </c>
       <c r="L16" s="2">
-        <f>SUM(M33:M36)/4</f>
+        <f t="shared" si="12"/>
         <v>2.972235</v>
       </c>
       <c r="M16" s="2">
-        <f>SUM(N33:N36)/4</f>
+        <f t="shared" si="12"/>
         <v>3.1213475000000002</v>
       </c>
       <c r="N16" s="2">
-        <f>SUM(O33:O36)/4</f>
+        <f t="shared" si="12"/>
         <v>3.6130275000000003</v>
       </c>
     </row>
@@ -2526,55 +2739,55 @@
         <v>32</v>
       </c>
       <c r="B17" s="4">
-        <f>SUM(C37:C40)/4</f>
+        <f t="shared" ref="B17:N17" si="13">SUM(C37:C40)/4</f>
         <v>17.012675000000002</v>
       </c>
       <c r="C17" s="4">
-        <f>SUM(D37:D40)/4</f>
+        <f t="shared" si="13"/>
         <v>10.475549999999998</v>
       </c>
       <c r="D17" s="4">
-        <f>SUM(E37:E40)/4</f>
+        <f t="shared" si="13"/>
         <v>6.7506149999999998</v>
       </c>
       <c r="E17" s="4">
-        <f>SUM(F37:F40)/4</f>
+        <f t="shared" si="13"/>
         <v>5.4592524999999998</v>
       </c>
       <c r="F17" s="4">
-        <f>SUM(G37:G40)/4</f>
+        <f t="shared" si="13"/>
         <v>4.8410849999999996</v>
       </c>
       <c r="G17" s="4">
-        <f>SUM(H37:H40)/4</f>
+        <f t="shared" si="13"/>
         <v>3.8921074999999998</v>
       </c>
       <c r="H17" s="4">
-        <f>SUM(I37:I40)/4</f>
+        <f t="shared" si="13"/>
         <v>3.3121</v>
       </c>
       <c r="I17" s="4">
-        <f>SUM(J37:J40)/4</f>
+        <f t="shared" si="13"/>
         <v>2.9874774999999998</v>
       </c>
       <c r="J17" s="13">
-        <f>SUM(K37:K40)/4</f>
+        <f t="shared" si="13"/>
         <v>2.7087325</v>
       </c>
       <c r="K17" s="4">
-        <f>SUM(L37:L40)/4</f>
+        <f t="shared" si="13"/>
         <v>2.8670349999999996</v>
       </c>
       <c r="L17" s="4">
-        <f>SUM(M37:M40)/4</f>
+        <f t="shared" si="13"/>
         <v>3.4888174999999997</v>
       </c>
       <c r="M17" s="4">
-        <f>SUM(N37:N40)/4</f>
+        <f t="shared" si="13"/>
         <v>3.6621799999999993</v>
       </c>
       <c r="N17" s="4">
-        <f>SUM(O37:O40)/4</f>
+        <f t="shared" si="13"/>
         <v>3.6621799999999993</v>
       </c>
     </row>
@@ -2583,55 +2796,55 @@
         <v>50</v>
       </c>
       <c r="B18" s="11">
-        <f>SUM(C41:C44)/4</f>
+        <f t="shared" ref="B18:N18" si="14">SUM(C41:C44)/4</f>
         <v>0</v>
       </c>
       <c r="C18" s="11">
-        <f>SUM(D41:D44)/4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="D18" s="11">
-        <f>SUM(E41:E44)/4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E18" s="11">
-        <f>SUM(F41:F44)/4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F18" s="11">
-        <f>SUM(G41:G44)/4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f>SUM(H41:H44)/4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H18" s="11">
-        <f>SUM(I41:I44)/4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I18" s="11">
-        <f>SUM(J41:J44)/4</f>
+        <f t="shared" si="14"/>
         <v>2.9391250000000002</v>
       </c>
       <c r="J18" s="13">
-        <f>SUM(K41:K44)/4</f>
+        <f t="shared" si="14"/>
         <v>2.7465450000000002</v>
       </c>
       <c r="K18" s="11">
-        <f>SUM(L41:L44)/4</f>
+        <f t="shared" si="14"/>
         <v>2.9293450000000001</v>
       </c>
       <c r="L18" s="11">
-        <f>SUM(M41:M44)/4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M18" s="11">
-        <f>SUM(N41:N44)/4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N18" s="11">
-        <f>SUM(O41:O44)/4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
@@ -4827,55 +5040,55 @@
         <v>16</v>
       </c>
       <c r="C96" s="14">
-        <f>SUM(C113:C116)/4</f>
+        <f t="shared" ref="C96:O96" si="15">SUM(C113:C116)/4</f>
         <v>17.593474999999998</v>
       </c>
       <c r="D96" s="14">
-        <f>SUM(D113:D116)/4</f>
+        <f t="shared" si="15"/>
         <v>11.233875000000001</v>
       </c>
       <c r="E96" s="14">
-        <f>SUM(E113:E116)/4</f>
+        <f t="shared" si="15"/>
         <v>7.5349650000000006</v>
       </c>
       <c r="F96" s="14">
-        <f>SUM(F113:F116)/4</f>
+        <f t="shared" si="15"/>
         <v>6.2634749999999997</v>
       </c>
       <c r="G96" s="14">
-        <f>SUM(G113:G116)/4</f>
+        <f t="shared" si="15"/>
         <v>5.2937725000000002</v>
       </c>
       <c r="H96" s="14">
-        <f>SUM(H113:H116)/4</f>
+        <f t="shared" si="15"/>
         <v>4.3344649999999998</v>
       </c>
       <c r="I96" s="14">
-        <f>SUM(I113:I116)/4</f>
+        <f t="shared" si="15"/>
         <v>3.6358549999999998</v>
       </c>
       <c r="J96" s="14">
-        <f>SUM(J113:J116)/4</f>
+        <f t="shared" si="15"/>
         <v>3.8229225000000002</v>
       </c>
       <c r="K96" s="15">
-        <f>SUM(K113:K116)/4</f>
+        <f t="shared" si="15"/>
         <v>3.0845000000000002</v>
       </c>
       <c r="L96" s="14">
-        <f>SUM(L113:L116)/4</f>
+        <f t="shared" si="15"/>
         <v>3.9990249999999996</v>
       </c>
       <c r="M96" s="14">
-        <f>SUM(M113:M116)/4</f>
+        <f t="shared" si="15"/>
         <v>3.0257425000000002</v>
       </c>
       <c r="N96" s="14">
-        <f>SUM(N113:N116)/4</f>
+        <f t="shared" si="15"/>
         <v>4.2383024999999996</v>
       </c>
       <c r="O96" s="14">
-        <f>SUM(O113:O116)/4</f>
+        <f t="shared" si="15"/>
         <v>3.4627049999999997</v>
       </c>
       <c r="V96" s="18"/>
@@ -4883,55 +5096,55 @@
         <v>16</v>
       </c>
       <c r="X96" s="14">
-        <f>SUM(X113:X116)/4</f>
+        <f t="shared" ref="X96:AJ96" si="16">SUM(X113:X116)/4</f>
         <v>17.348550000000003</v>
       </c>
       <c r="Y96" s="14">
-        <f>SUM(Y113:Y116)/4</f>
+        <f t="shared" si="16"/>
         <v>11.572125000000002</v>
       </c>
       <c r="Z96" s="14">
-        <f>SUM(Z113:Z116)/4</f>
+        <f t="shared" si="16"/>
         <v>7.4804474999999995</v>
       </c>
       <c r="AA96" s="14">
-        <f>SUM(AA113:AA116)/4</f>
+        <f t="shared" si="16"/>
         <v>6.1374749999999993</v>
       </c>
       <c r="AB96" s="14">
-        <f>SUM(AB113:AB116)/4</f>
+        <f t="shared" si="16"/>
         <v>5.2646375000000001</v>
       </c>
       <c r="AC96" s="14">
-        <f>SUM(AC113:AC116)/4</f>
+        <f t="shared" si="16"/>
         <v>4.2253875000000001</v>
       </c>
       <c r="AD96" s="14">
-        <f>SUM(AD113:AD116)/4</f>
+        <f t="shared" si="16"/>
         <v>3.5702599999999998</v>
       </c>
       <c r="AE96" s="14">
-        <f>SUM(AE113:AE116)/4</f>
+        <f t="shared" si="16"/>
         <v>3.1905625000000004</v>
       </c>
       <c r="AF96" s="15">
-        <f>SUM(AF113:AF116)/4</f>
+        <f t="shared" si="16"/>
         <v>2.9487300000000003</v>
       </c>
       <c r="AG96" s="14">
-        <f>SUM(AG113:AG116)/4</f>
+        <f t="shared" si="16"/>
         <v>3.4715400000000001</v>
       </c>
       <c r="AH96" s="14">
-        <f>SUM(AH113:AH116)/4</f>
+        <f t="shared" si="16"/>
         <v>4.1106050000000005</v>
       </c>
       <c r="AI96" s="14">
-        <f>SUM(AI113:AI116)/4</f>
+        <f t="shared" si="16"/>
         <v>4.4162599999999994</v>
       </c>
       <c r="AJ96" s="14">
-        <f>SUM(AJ113:AJ116)/4</f>
+        <f t="shared" si="16"/>
         <v>4.1337324999999998</v>
       </c>
     </row>
@@ -4941,55 +5154,55 @@
         <v>24</v>
       </c>
       <c r="C97" s="14">
-        <f>SUM(C117:C120)/4</f>
+        <f t="shared" ref="C97:O97" si="17">SUM(C117:C120)/4</f>
         <v>17.561100000000003</v>
       </c>
       <c r="D97" s="14">
-        <f>SUM(D117:D120)/4</f>
+        <f t="shared" si="17"/>
         <v>11.789225</v>
       </c>
       <c r="E97" s="14">
-        <f>SUM(E117:E120)/4</f>
+        <f t="shared" si="17"/>
         <v>7.53057</v>
       </c>
       <c r="F97" s="14">
-        <f>SUM(F117:F120)/4</f>
+        <f t="shared" si="17"/>
         <v>5.8790200000000006</v>
       </c>
       <c r="G97" s="14">
-        <f>SUM(G117:G120)/4</f>
+        <f t="shared" si="17"/>
         <v>3.5346150000000001</v>
       </c>
       <c r="H97" s="14">
-        <f>SUM(H117:H120)/4</f>
+        <f t="shared" si="17"/>
         <v>3.4888874999999997</v>
       </c>
       <c r="I97" s="14">
-        <f>SUM(I117:I120)/4</f>
+        <f t="shared" si="17"/>
         <v>3.6326849999999999</v>
       </c>
       <c r="J97" s="14">
-        <f>SUM(J117:J120)/4</f>
+        <f t="shared" si="17"/>
         <v>3.2905099999999998</v>
       </c>
       <c r="K97" s="15">
-        <f>SUM(K117:K120)/4</f>
+        <f t="shared" si="17"/>
         <v>3.0707300000000002</v>
       </c>
       <c r="L97" s="14">
-        <f>SUM(L117:L120)/4</f>
+        <f t="shared" si="17"/>
         <v>2.86537</v>
       </c>
       <c r="M97" s="14">
-        <f>SUM(M117:M120)/4</f>
+        <f t="shared" si="17"/>
         <v>3.1141799999999997</v>
       </c>
       <c r="N97" s="14">
-        <f>SUM(N117:N120)/4</f>
+        <f t="shared" si="17"/>
         <v>3.322165</v>
       </c>
       <c r="O97" s="14">
-        <f>SUM(O117:O120)/4</f>
+        <f t="shared" si="17"/>
         <v>3.7591125000000001</v>
       </c>
       <c r="V97" s="19"/>
@@ -4997,55 +5210,55 @@
         <v>24</v>
       </c>
       <c r="X97" s="14">
-        <f>SUM(X117:X120)/4</f>
+        <f t="shared" ref="X97:AJ97" si="18">SUM(X117:X120)/4</f>
         <v>17.427825000000002</v>
       </c>
       <c r="Y97" s="14">
-        <f>SUM(Y117:Y120)/4</f>
+        <f t="shared" si="18"/>
         <v>11.0131</v>
       </c>
       <c r="Z97" s="14">
-        <f>SUM(Z117:Z120)/4</f>
+        <f t="shared" si="18"/>
         <v>7.3282299999999996</v>
       </c>
       <c r="AA97" s="14">
-        <f>SUM(AA117:AA120)/4</f>
+        <f t="shared" si="18"/>
         <v>5.8029224999999993</v>
       </c>
       <c r="AB97" s="14">
-        <f>SUM(AB117:AB120)/4</f>
+        <f t="shared" si="18"/>
         <v>3.4748574999999997</v>
       </c>
       <c r="AC97" s="14">
-        <f>SUM(AC117:AC120)/4</f>
+        <f t="shared" si="18"/>
         <v>3.4566100000000004</v>
       </c>
       <c r="AD97" s="14">
-        <f>SUM(AD117:AD120)/4</f>
+        <f t="shared" si="18"/>
         <v>3.5802725</v>
       </c>
       <c r="AE97" s="14">
-        <f>SUM(AE117:AE120)/4</f>
+        <f t="shared" si="18"/>
         <v>3.20783</v>
       </c>
       <c r="AF97" s="15">
-        <f>SUM(AF117:AF120)/4</f>
+        <f t="shared" si="18"/>
         <v>2.9445100000000002</v>
       </c>
       <c r="AG97" s="14">
-        <f>SUM(AG117:AG120)/4</f>
+        <f t="shared" si="18"/>
         <v>4.0331650000000003</v>
       </c>
       <c r="AH97" s="14">
-        <f>SUM(AH117:AH120)/4</f>
+        <f t="shared" si="18"/>
         <v>4.0716924999999993</v>
       </c>
       <c r="AI97" s="14">
-        <f>SUM(AI117:AI120)/4</f>
+        <f t="shared" si="18"/>
         <v>4.2584975000000007</v>
       </c>
       <c r="AJ97" s="14">
-        <f>SUM(AJ117:AJ120)/4</f>
+        <f t="shared" si="18"/>
         <v>4.0929850000000005</v>
       </c>
     </row>
@@ -5054,110 +5267,110 @@
         <v>32</v>
       </c>
       <c r="C98" s="14">
-        <f>SUM(C121:C124)/4</f>
+        <f t="shared" ref="C98:O98" si="19">SUM(C121:C124)/4</f>
         <v>17.568275</v>
       </c>
       <c r="D98" s="14">
-        <f>SUM(D121:D124)/4</f>
+        <f t="shared" si="19"/>
         <v>11.114700000000001</v>
       </c>
       <c r="E98" s="14">
-        <f>SUM(E121:E124)/4</f>
+        <f t="shared" si="19"/>
         <v>7.4031250000000002</v>
       </c>
       <c r="F98" s="14">
-        <f>SUM(F121:F124)/4</f>
+        <f t="shared" si="19"/>
         <v>5.905735</v>
       </c>
       <c r="G98" s="14">
-        <f>SUM(G121:G124)/4</f>
+        <f t="shared" si="19"/>
         <v>5.2779775000000004</v>
       </c>
       <c r="H98" s="14">
-        <f>SUM(H121:H124)/4</f>
+        <f t="shared" si="19"/>
         <v>4.2272124999999994</v>
       </c>
       <c r="I98" s="14">
-        <f>SUM(I121:I124)/4</f>
+        <f t="shared" si="19"/>
         <v>3.5981100000000001</v>
       </c>
       <c r="J98" s="14">
-        <f>SUM(J121:J124)/4</f>
+        <f t="shared" si="19"/>
         <v>3.2454899999999998</v>
       </c>
       <c r="K98" s="15">
-        <f>SUM(K121:K124)/4</f>
+        <f t="shared" si="19"/>
         <v>2.9698324999999999</v>
       </c>
       <c r="L98" s="14">
-        <f>SUM(L121:L124)/4</f>
+        <f t="shared" si="19"/>
         <v>2.9996700000000001</v>
       </c>
       <c r="M98" s="14">
-        <f>SUM(M121:M124)/4</f>
+        <f t="shared" si="19"/>
         <v>3.8994349999999995</v>
       </c>
       <c r="N98" s="14">
-        <f>SUM(N121:N124)/4</f>
+        <f t="shared" si="19"/>
         <v>3.8445999999999998</v>
       </c>
       <c r="O98" s="14">
-        <f>SUM(O121:O124)/4</f>
+        <f t="shared" si="19"/>
         <v>3.9505625000000002</v>
       </c>
       <c r="W98" s="1">
         <v>32</v>
       </c>
       <c r="X98" s="14">
-        <f>SUM(X121:X124)/4</f>
+        <f t="shared" ref="X98:AJ98" si="20">SUM(X121:X124)/4</f>
         <v>17.290649999999999</v>
       </c>
       <c r="Y98" s="14">
-        <f>SUM(Y121:Y124)/4</f>
+        <f t="shared" si="20"/>
         <v>11.4895</v>
       </c>
       <c r="Z98" s="14">
-        <f>SUM(Z121:Z124)/4</f>
+        <f t="shared" si="20"/>
         <v>7.2939800000000004</v>
       </c>
       <c r="AA98" s="14">
-        <f>SUM(AA121:AA124)/4</f>
+        <f t="shared" si="20"/>
         <v>5.8498375000000005</v>
       </c>
       <c r="AB98" s="14">
-        <f>SUM(AB121:AB124)/4</f>
+        <f t="shared" si="20"/>
         <v>5.2436999999999996</v>
       </c>
       <c r="AC98" s="14">
-        <f>SUM(AC121:AC124)/4</f>
+        <f t="shared" si="20"/>
         <v>4.1936549999999997</v>
       </c>
       <c r="AD98" s="14">
-        <f>SUM(AD121:AD124)/4</f>
+        <f t="shared" si="20"/>
         <v>3.53308</v>
       </c>
       <c r="AE98" s="14">
-        <f>SUM(AE121:AE124)/4</f>
+        <f t="shared" si="20"/>
         <v>3.201505</v>
       </c>
       <c r="AF98" s="15">
-        <f>SUM(AF121:AF124)/4</f>
+        <f t="shared" si="20"/>
         <v>2.9363650000000003</v>
       </c>
       <c r="AG98" s="14">
-        <f>SUM(AG121:AG124)/4</f>
+        <f t="shared" si="20"/>
         <v>3.4214099999999998</v>
       </c>
       <c r="AH98" s="14">
-        <f>SUM(AH121:AH124)/4</f>
+        <f t="shared" si="20"/>
         <v>4.0820224999999999</v>
       </c>
       <c r="AI98" s="14">
-        <f>SUM(AI121:AI124)/4</f>
+        <f t="shared" si="20"/>
         <v>4.1856675000000001</v>
       </c>
       <c r="AJ98" s="14">
-        <f>SUM(AJ121:AJ124)/4</f>
+        <f t="shared" si="20"/>
         <v>4.1559125000000003</v>
       </c>
     </row>
@@ -5166,110 +5379,110 @@
         <v>50</v>
       </c>
       <c r="C99" s="14">
-        <f>SUM(C125:C128)/4</f>
+        <f t="shared" ref="C99:O99" si="21">SUM(C125:C128)/4</f>
         <v>17.5961</v>
       </c>
       <c r="D99" s="14">
-        <f>SUM(D125:D128)/4</f>
+        <f t="shared" si="21"/>
         <v>11.05645</v>
       </c>
       <c r="E99" s="14">
-        <f>SUM(E125:E128)/4</f>
+        <f t="shared" si="21"/>
         <v>7.2046700000000001</v>
       </c>
       <c r="F99" s="14">
-        <f>SUM(F125:F128)/4</f>
+        <f t="shared" si="21"/>
         <v>5.8525874999999994</v>
       </c>
       <c r="G99" s="14">
-        <f>SUM(G125:G128)/4</f>
+        <f t="shared" si="21"/>
         <v>5.2207575000000004</v>
       </c>
       <c r="H99" s="14">
-        <f>SUM(H125:H128)/4</f>
+        <f t="shared" si="21"/>
         <v>4.1993350000000005</v>
       </c>
       <c r="I99" s="14">
-        <f>SUM(I125:I128)/4</f>
+        <f t="shared" si="21"/>
         <v>3.5638475000000001</v>
       </c>
       <c r="J99" s="14">
-        <f>SUM(J125:J128)/4</f>
+        <f t="shared" si="21"/>
         <v>3.18127</v>
       </c>
       <c r="K99" s="15">
-        <f>SUM(K125:K128)/4</f>
+        <f t="shared" si="21"/>
         <v>2.9284374999999998</v>
       </c>
       <c r="L99" s="14">
-        <f>SUM(L125:L128)/4</f>
+        <f t="shared" si="21"/>
         <v>3.5659274999999999</v>
       </c>
       <c r="M99" s="14">
-        <f>SUM(M125:M128)/4</f>
+        <f t="shared" si="21"/>
         <v>3.9601150000000001</v>
       </c>
       <c r="N99" s="14">
-        <f>SUM(N125:N128)/4</f>
+        <f t="shared" si="21"/>
         <v>3.9695024999999999</v>
       </c>
       <c r="O99" s="14">
-        <f>SUM(O125:O128)/4</f>
+        <f t="shared" si="21"/>
         <v>3.9534525000000005</v>
       </c>
       <c r="W99" s="1">
         <v>50</v>
       </c>
       <c r="X99" s="14">
-        <f>SUM(X125:X128)/4</f>
+        <f t="shared" ref="X99:AJ99" si="22">SUM(X125:X128)/4</f>
         <v>17.287800000000001</v>
       </c>
       <c r="Y99" s="14">
-        <f>SUM(Y125:Y128)/4</f>
+        <f t="shared" si="22"/>
         <v>10.858550000000001</v>
       </c>
       <c r="Z99" s="14">
-        <f>SUM(Z125:Z128)/4</f>
+        <f t="shared" si="22"/>
         <v>7.0786299999999995</v>
       </c>
       <c r="AA99" s="14">
-        <f>SUM(AA125:AA128)/4</f>
+        <f t="shared" si="22"/>
         <v>5.7966774999999995</v>
       </c>
       <c r="AB99" s="14">
-        <f>SUM(AB125:AB128)/4</f>
+        <f t="shared" si="22"/>
         <v>5.2262424999999997</v>
       </c>
       <c r="AC99" s="14">
-        <f>SUM(AC125:AC128)/4</f>
+        <f t="shared" si="22"/>
         <v>4.2018624999999998</v>
       </c>
       <c r="AD99" s="14">
-        <f>SUM(AD125:AD128)/4</f>
+        <f t="shared" si="22"/>
         <v>3.5734349999999999</v>
       </c>
       <c r="AE99" s="14">
-        <f>SUM(AE125:AE128)/4</f>
+        <f t="shared" si="22"/>
         <v>3.1606174999999999</v>
       </c>
       <c r="AF99" s="15">
-        <f>SUM(AF125:AF128)/4</f>
+        <f t="shared" si="22"/>
         <v>2.9495149999999999</v>
       </c>
       <c r="AG99" s="14">
-        <f>SUM(AG125:AG128)/4</f>
+        <f t="shared" si="22"/>
         <v>3.7887475000000004</v>
       </c>
       <c r="AH99" s="14">
-        <f>SUM(AH125:AH128)/4</f>
+        <f t="shared" si="22"/>
         <v>4.2537200000000004</v>
       </c>
       <c r="AI99" s="14">
-        <f>SUM(AI125:AI128)/4</f>
+        <f t="shared" si="22"/>
         <v>4.0823875000000003</v>
       </c>
       <c r="AJ99" s="14">
-        <f>SUM(AJ125:AJ128)/4</f>
+        <f t="shared" si="22"/>
         <v>4.1234450000000002</v>
       </c>
     </row>
@@ -6952,6 +7165,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="W19:W22"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="W23:W26"/>
+    <mergeCell ref="W27:W30"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
     <mergeCell ref="W39:W42"/>
     <mergeCell ref="W35:W38"/>
     <mergeCell ref="A93:A97"/>
@@ -6960,14 +7181,6 @@
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="W31:W34"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="W19:W22"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="W23:W26"/>
-    <mergeCell ref="W27:W30"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/pruebas/tiempos_locks.xlsx
+++ b/pruebas/tiempos_locks.xlsx
@@ -55,11 +55,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -183,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,7 +220,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,11 +593,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82567552"/>
-        <c:axId val="82569856"/>
+        <c:axId val="74842496"/>
+        <c:axId val="74844800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82567552"/>
+        <c:axId val="74842496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,14 +622,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82569856"/>
+        <c:crossAx val="74844800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82569856"/>
+        <c:axId val="74844800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +655,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82567552"/>
+        <c:crossAx val="74842496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -670,7 +668,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1026,25 +1024,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82675584"/>
-        <c:axId val="82677120"/>
+        <c:axId val="74876800"/>
+        <c:axId val="74878336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82675584"/>
+        <c:axId val="74876800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82677120"/>
+        <c:crossAx val="74878336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82677120"/>
+        <c:axId val="74878336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1050,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82675584"/>
+        <c:crossAx val="74876800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1065,7 +1063,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1165,25 +1163,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82689024"/>
-        <c:axId val="83243776"/>
+        <c:axId val="74890240"/>
+        <c:axId val="75383552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82689024"/>
+        <c:axId val="74890240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83243776"/>
+        <c:crossAx val="75383552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83243776"/>
+        <c:axId val="75383552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1189,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82689024"/>
+        <c:crossAx val="74890240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1204,7 +1202,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1304,25 +1302,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83284352"/>
-        <c:axId val="83285888"/>
+        <c:axId val="75424128"/>
+        <c:axId val="75425664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83284352"/>
+        <c:axId val="75424128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83285888"/>
+        <c:crossAx val="75425664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83285888"/>
+        <c:axId val="75425664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1328,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83284352"/>
+        <c:crossAx val="75424128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1343,7 +1341,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1704,11 +1702,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83198720"/>
-        <c:axId val="83200640"/>
+        <c:axId val="75338496"/>
+        <c:axId val="75340416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83198720"/>
+        <c:axId val="75338496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,14 +1731,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83200640"/>
+        <c:crossAx val="75340416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83200640"/>
+        <c:axId val="75340416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1764,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83198720"/>
+        <c:crossAx val="75338496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1779,7 +1777,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2135,11 +2133,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="83302272"/>
-        <c:axId val="83312640"/>
+        <c:axId val="75437952"/>
+        <c:axId val="75448320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83302272"/>
+        <c:axId val="75437952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,14 +2162,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83312640"/>
+        <c:crossAx val="75448320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83312640"/>
+        <c:axId val="75448320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,7 +2195,7 @@
         </c:title>
         <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83302272"/>
+        <c:crossAx val="75437952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2210,7 +2208,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2767,11 +2765,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="83352576"/>
-        <c:axId val="83358848"/>
+        <c:axId val="75575680"/>
+        <c:axId val="75577600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83352576"/>
+        <c:axId val="75575680"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -2807,12 +2805,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83358848"/>
+        <c:crossAx val="75577600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83358848"/>
+        <c:axId val="75577600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,7 +2846,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83352576"/>
+        <c:crossAx val="75575680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2861,7 +2859,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3413,11 +3411,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="113246208"/>
-        <c:axId val="60754176"/>
+        <c:axId val="75638272"/>
+        <c:axId val="75640192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113246208"/>
+        <c:axId val="75638272"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -3453,12 +3451,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60754176"/>
+        <c:crossAx val="75640192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60754176"/>
+        <c:axId val="75640192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +3492,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113246208"/>
+        <c:crossAx val="75638272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3507,7 +3505,659 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Sección crítica mejorada</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> (con locks)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>4-locks</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$X$7:$AJ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$X$8:$AJ$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16.693824999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.4915</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7886725000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2153999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9914825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.286505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9545524999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0254325000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8511899999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7404375000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.1218575</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9979499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9101349999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>8-locks</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$X$7:$AJ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$X$9:$AJ$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16.644925000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.641249999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0314599999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7330350000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9319025000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8729799999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2777500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9566325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7245775000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8091524999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0581825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0581825</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9087750000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>16-locks</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$X$7:$AJ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$X$10:$AJ$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16.630025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.350375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8615674999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7232150000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8894900000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8780049999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2930250000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9317299999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8042750000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2854175000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7873874999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0522774999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7707050000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>24-locks</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$X$7:$AJ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$X$11:$AJ$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16.605874999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.52365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8501300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4237299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2639800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.18608</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3207825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9160325000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7028650000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4775925000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9793175000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8251900000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6834049999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>32-locks</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$X$7:$AJ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$X$12:$AJ$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16.787624999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.349675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7278400000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4411025000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8656924999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8942424999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.302575</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9578999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0014449999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8479074999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8533949999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7498250000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8168099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="105133568"/>
+        <c:axId val="105135488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105133568"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="105135488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="105135488"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Tiempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="105133568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3750,6 +4400,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>151730</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>181601</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="12 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4132,8 +4812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FH291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CP148" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="DF185" sqref="DF185"/>
+    <sheetView tabSelected="1" topLeftCell="DM117" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="EA152" sqref="EA152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4243,7 +4923,7 @@
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="Z4" t="s">
@@ -4251,7 +4931,7 @@
       </c>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -4309,7 +4989,7 @@
       </c>
     </row>
     <row r="6" spans="1:53">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="C6">
         <f>$B$17/C17</f>
         <v>1.6240364467736781</v>
@@ -4363,7 +5043,7 @@
       </c>
     </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -4414,7 +5094,7 @@
       </c>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="C8" s="17">
         <f t="shared" ref="C8:N8" si="3">C6/C12</f>
         <v>0.81201822338683904</v>
@@ -4521,7 +5201,7 @@
       </c>
     </row>
     <row r="9" spans="1:53">
-      <c r="V9" s="25"/>
+      <c r="V9" s="24"/>
       <c r="W9" s="1">
         <v>8</v>
       </c>
@@ -4579,7 +5259,7 @@
       </c>
     </row>
     <row r="10" spans="1:53">
-      <c r="V10" s="25"/>
+      <c r="V10" s="24"/>
       <c r="W10" s="1">
         <v>16</v>
       </c>
@@ -4637,7 +5317,7 @@
       </c>
     </row>
     <row r="11" spans="1:53">
-      <c r="V11" s="26"/>
+      <c r="V11" s="25"/>
       <c r="W11" s="1">
         <v>24</v>
       </c>
@@ -5177,43 +5857,43 @@
       <c r="AN17" s="1">
         <v>4</v>
       </c>
-      <c r="AO17" s="18">
+      <c r="AO17" s="14">
         <v>16.693824999999997</v>
       </c>
-      <c r="AP17" s="18">
+      <c r="AP17" s="14">
         <v>10.4915</v>
       </c>
-      <c r="AQ17" s="18">
+      <c r="AQ17" s="14">
         <v>6.7886725000000006</v>
       </c>
-      <c r="AR17" s="18">
+      <c r="AR17" s="14">
         <v>4.2153999999999998</v>
       </c>
-      <c r="AS17" s="18">
+      <c r="AS17" s="14">
         <v>3.9914825</v>
       </c>
-      <c r="AT17" s="18">
+      <c r="AT17" s="14">
         <v>3.286505</v>
       </c>
-      <c r="AU17" s="18">
+      <c r="AU17" s="14">
         <v>2.9545524999999997</v>
       </c>
-      <c r="AV17" s="18">
+      <c r="AV17" s="14">
         <v>3.0254325000000004</v>
       </c>
-      <c r="AW17" s="19">
+      <c r="AW17" s="15">
         <v>2.8511899999999999</v>
       </c>
-      <c r="AX17" s="18">
+      <c r="AX17" s="14">
         <v>3.7404375000000001</v>
       </c>
-      <c r="AY17" s="18">
+      <c r="AY17" s="14">
         <v>4.1218575</v>
       </c>
-      <c r="AZ17" s="18">
+      <c r="AZ17" s="14">
         <v>3.9979499999999999</v>
       </c>
-      <c r="BA17" s="18">
+      <c r="BA17" s="14">
         <v>3.9101349999999999</v>
       </c>
     </row>
@@ -5318,48 +5998,48 @@
       <c r="AN18" s="1">
         <v>8</v>
       </c>
-      <c r="AO18" s="18">
+      <c r="AO18" s="14">
         <v>16.644925000000001</v>
       </c>
-      <c r="AP18" s="18">
+      <c r="AP18" s="14">
         <v>10.641249999999999</v>
       </c>
-      <c r="AQ18" s="18">
+      <c r="AQ18" s="14">
         <v>7.0314599999999992</v>
       </c>
-      <c r="AR18" s="18">
+      <c r="AR18" s="14">
         <v>5.7330350000000001</v>
       </c>
-      <c r="AS18" s="18">
+      <c r="AS18" s="14">
         <v>3.9319025000000001</v>
       </c>
-      <c r="AT18" s="18">
+      <c r="AT18" s="14">
         <v>3.8729799999999996</v>
       </c>
-      <c r="AU18" s="18">
+      <c r="AU18" s="14">
         <v>3.2777500000000002</v>
       </c>
-      <c r="AV18" s="18">
+      <c r="AV18" s="14">
         <v>2.9566325</v>
       </c>
-      <c r="AW18" s="19">
+      <c r="AW18" s="15">
         <v>2.7245775000000001</v>
       </c>
-      <c r="AX18" s="18">
+      <c r="AX18" s="14">
         <v>3.8091524999999997</v>
       </c>
-      <c r="AY18" s="18">
+      <c r="AY18" s="14">
         <v>4.0581825</v>
       </c>
-      <c r="AZ18" s="18">
+      <c r="AZ18" s="14">
         <v>4.0581825</v>
       </c>
-      <c r="BA18" s="18">
+      <c r="BA18" s="14">
         <v>3.9087750000000003</v>
       </c>
     </row>
     <row r="19" spans="1:53">
-      <c r="W19" s="24">
+      <c r="W19" s="23">
         <v>4</v>
       </c>
       <c r="X19" s="2">
@@ -5404,43 +6084,43 @@
       <c r="AN19" s="1">
         <v>16</v>
       </c>
-      <c r="AO19" s="18">
+      <c r="AO19" s="14">
         <v>16.630025</v>
       </c>
-      <c r="AP19" s="18">
+      <c r="AP19" s="14">
         <v>10.350375</v>
       </c>
-      <c r="AQ19" s="18">
+      <c r="AQ19" s="14">
         <v>6.8615674999999996</v>
       </c>
-      <c r="AR19" s="18">
+      <c r="AR19" s="14">
         <v>5.7232150000000006</v>
       </c>
-      <c r="AS19" s="18">
+      <c r="AS19" s="14">
         <v>4.8894900000000003</v>
       </c>
-      <c r="AT19" s="18">
+      <c r="AT19" s="14">
         <v>3.8780049999999999</v>
       </c>
-      <c r="AU19" s="18">
+      <c r="AU19" s="14">
         <v>3.2930250000000001</v>
       </c>
-      <c r="AV19" s="18">
+      <c r="AV19" s="14">
         <v>2.9317299999999999</v>
       </c>
-      <c r="AW19" s="19">
+      <c r="AW19" s="15">
         <v>2.8042750000000001</v>
       </c>
-      <c r="AX19" s="18">
+      <c r="AX19" s="14">
         <v>3.2854175000000003</v>
       </c>
-      <c r="AY19" s="18">
+      <c r="AY19" s="14">
         <v>3.7873874999999999</v>
       </c>
-      <c r="AZ19" s="18">
+      <c r="AZ19" s="14">
         <v>4.0522774999999998</v>
       </c>
-      <c r="BA19" s="18">
+      <c r="BA19" s="14">
         <v>3.7707050000000004</v>
       </c>
     </row>
@@ -5487,7 +6167,7 @@
       <c r="O20" s="1">
         <v>48</v>
       </c>
-      <c r="W20" s="25"/>
+      <c r="W20" s="24"/>
       <c r="X20" s="2">
         <v>16.672899999999998</v>
       </c>
@@ -5530,48 +6210,48 @@
       <c r="AN20" s="1">
         <v>24</v>
       </c>
-      <c r="AO20" s="18">
+      <c r="AO20" s="14">
         <v>16.605874999999997</v>
       </c>
-      <c r="AP20" s="18">
+      <c r="AP20" s="14">
         <v>10.52365</v>
       </c>
-      <c r="AQ20" s="18">
+      <c r="AQ20" s="14">
         <v>6.8501300000000001</v>
       </c>
-      <c r="AR20" s="18">
+      <c r="AR20" s="14">
         <v>5.4237299999999999</v>
       </c>
-      <c r="AS20" s="18">
+      <c r="AS20" s="14">
         <v>3.2639800000000001</v>
       </c>
-      <c r="AT20" s="18">
+      <c r="AT20" s="14">
         <v>3.18608</v>
       </c>
-      <c r="AU20" s="18">
+      <c r="AU20" s="14">
         <v>3.3207825</v>
       </c>
-      <c r="AV20" s="18">
+      <c r="AV20" s="14">
         <v>2.9160325000000005</v>
       </c>
-      <c r="AW20" s="19">
+      <c r="AW20" s="15">
         <v>2.7028650000000001</v>
       </c>
-      <c r="AX20" s="18">
+      <c r="AX20" s="14">
         <v>3.4775925000000001</v>
       </c>
-      <c r="AY20" s="18">
+      <c r="AY20" s="14">
         <v>3.9793175000000005</v>
       </c>
-      <c r="AZ20" s="18">
+      <c r="AZ20" s="14">
         <v>3.8251900000000001</v>
       </c>
-      <c r="BA20" s="18">
+      <c r="BA20" s="14">
         <v>3.6834049999999996</v>
       </c>
     </row>
     <row r="21" spans="1:53">
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>4</v>
       </c>
       <c r="C21" s="2">
@@ -5613,7 +6293,7 @@
       <c r="O21" s="2">
         <v>12.0006</v>
       </c>
-      <c r="W21" s="25"/>
+      <c r="W21" s="24"/>
       <c r="X21" s="2">
         <v>16.775099999999998</v>
       </c>
@@ -5656,48 +6336,48 @@
       <c r="AN21" s="1">
         <v>32</v>
       </c>
-      <c r="AO21" s="18">
+      <c r="AO21" s="14">
         <v>16.787624999999998</v>
       </c>
-      <c r="AP21" s="18">
+      <c r="AP21" s="14">
         <v>10.349675</v>
       </c>
-      <c r="AQ21" s="18">
+      <c r="AQ21" s="14">
         <v>6.7278400000000005</v>
       </c>
-      <c r="AR21" s="18">
+      <c r="AR21" s="14">
         <v>5.4411025000000004</v>
       </c>
-      <c r="AS21" s="18">
+      <c r="AS21" s="14">
         <v>4.8656924999999998</v>
       </c>
-      <c r="AT21" s="18">
+      <c r="AT21" s="14">
         <v>3.8942424999999998</v>
       </c>
-      <c r="AU21" s="18">
+      <c r="AU21" s="14">
         <v>3.302575</v>
       </c>
-      <c r="AV21" s="18">
+      <c r="AV21" s="14">
         <v>2.9578999999999995</v>
       </c>
-      <c r="AW21" s="19">
+      <c r="AW21" s="15">
         <v>3.0014449999999995</v>
       </c>
-      <c r="AX21" s="18">
+      <c r="AX21" s="14">
         <v>2.8479074999999998</v>
       </c>
-      <c r="AY21" s="18">
+      <c r="AY21" s="14">
         <v>3.8533949999999999</v>
       </c>
-      <c r="AZ21" s="18">
+      <c r="AZ21" s="14">
         <v>3.7498250000000004</v>
       </c>
-      <c r="BA21" s="18">
+      <c r="BA21" s="14">
         <v>3.8168099999999998</v>
       </c>
     </row>
     <row r="22" spans="1:53">
-      <c r="B22" s="25"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="2">
         <v>16.723700000000001</v>
       </c>
@@ -5737,7 +6417,7 @@
       <c r="O22" s="2">
         <v>11.4323</v>
       </c>
-      <c r="W22" s="26"/>
+      <c r="W22" s="25"/>
       <c r="X22" s="2">
         <v>16.6934</v>
       </c>
@@ -5780,48 +6460,48 @@
       <c r="AN22" s="1">
         <v>50</v>
       </c>
-      <c r="AO22" s="18">
+      <c r="AO22" s="14">
         <v>16.733575000000002</v>
       </c>
-      <c r="AP22" s="18">
+      <c r="AP22" s="14">
         <v>10.331775</v>
       </c>
-      <c r="AQ22" s="18">
+      <c r="AQ22" s="14">
         <v>6.6038274999999995</v>
       </c>
-      <c r="AR22" s="18">
+      <c r="AR22" s="14">
         <v>5.4042749999999993</v>
       </c>
-      <c r="AS22" s="18">
+      <c r="AS22" s="14">
         <v>4.8399600000000005</v>
       </c>
-      <c r="AT22" s="18">
+      <c r="AT22" s="14">
         <v>3.8867350000000003</v>
       </c>
-      <c r="AU22" s="18">
+      <c r="AU22" s="14">
         <v>3.2938825</v>
       </c>
-      <c r="AV22" s="18">
+      <c r="AV22" s="14">
         <v>2.9323125000000001</v>
       </c>
-      <c r="AW22" s="19">
+      <c r="AW22" s="15">
         <v>2.7989549999999999</v>
       </c>
-      <c r="AX22" s="18">
+      <c r="AX22" s="14">
         <v>3.2813000000000003</v>
       </c>
-      <c r="AY22" s="18">
+      <c r="AY22" s="14">
         <v>3.8134924999999997</v>
       </c>
-      <c r="AZ22" s="18">
+      <c r="AZ22" s="14">
         <v>3.7393749999999999</v>
       </c>
-      <c r="BA22" s="18">
+      <c r="BA22" s="14">
         <v>3.661905</v>
       </c>
     </row>
     <row r="23" spans="1:53">
-      <c r="B23" s="25"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="2">
         <v>16.773299999999999</v>
       </c>
@@ -5861,7 +6541,7 @@
       <c r="O23" s="2">
         <v>12.0281</v>
       </c>
-      <c r="W23" s="24">
+      <c r="W23" s="23">
         <v>8</v>
       </c>
       <c r="X23" s="2">
@@ -5905,7 +6585,7 @@
       </c>
     </row>
     <row r="24" spans="1:53">
-      <c r="B24" s="26"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="2">
         <v>16.6463</v>
       </c>
@@ -5945,7 +6625,7 @@
       <c r="O24" s="2">
         <v>12.02</v>
       </c>
-      <c r="W24" s="25"/>
+      <c r="W24" s="24"/>
       <c r="X24" s="2">
         <v>16.647500000000001</v>
       </c>
@@ -5987,7 +6667,7 @@
       </c>
     </row>
     <row r="25" spans="1:53">
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>8</v>
       </c>
       <c r="C25" s="2">
@@ -6029,7 +6709,7 @@
       <c r="O25" s="2">
         <v>6.5164900000000001</v>
       </c>
-      <c r="W25" s="25"/>
+      <c r="W25" s="24"/>
       <c r="X25" s="2">
         <v>16.588200000000001</v>
       </c>
@@ -6071,7 +6751,7 @@
       </c>
     </row>
     <row r="26" spans="1:53">
-      <c r="B26" s="25"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="2">
         <v>16.644200000000001</v>
       </c>
@@ -6111,7 +6791,7 @@
       <c r="O26" s="2">
         <v>6.8807700000000001</v>
       </c>
-      <c r="W26" s="26"/>
+      <c r="W26" s="25"/>
       <c r="X26" s="2">
         <v>16.666599999999999</v>
       </c>
@@ -6153,7 +6833,7 @@
       </c>
     </row>
     <row r="27" spans="1:53">
-      <c r="B27" s="25"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="2">
         <v>16.9343</v>
       </c>
@@ -6193,7 +6873,7 @@
       <c r="O27" s="2">
         <v>7.0029000000000003</v>
       </c>
-      <c r="W27" s="24">
+      <c r="W27" s="23">
         <v>16</v>
       </c>
       <c r="X27" s="2">
@@ -6272,7 +6952,7 @@
       </c>
     </row>
     <row r="28" spans="1:53">
-      <c r="B28" s="26"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="2">
         <v>16.9147</v>
       </c>
@@ -6312,7 +6992,7 @@
       <c r="O28" s="2">
         <v>6.6078700000000001</v>
       </c>
-      <c r="W28" s="25"/>
+      <c r="W28" s="24"/>
       <c r="X28" s="2">
         <v>16.587700000000002</v>
       </c>
@@ -6355,39 +7035,39 @@
       <c r="AN28">
         <v>1</v>
       </c>
-      <c r="AO28" s="22">
+      <c r="AO28" s="20">
         <v>16.693824999999997</v>
       </c>
-      <c r="AP28" s="22">
+      <c r="AP28" s="20">
         <v>16.644925000000001</v>
       </c>
-      <c r="AQ28" s="22">
+      <c r="AQ28" s="20">
         <v>16.630025</v>
       </c>
-      <c r="AR28" s="22">
+      <c r="AR28" s="20">
         <v>16.605874999999997</v>
       </c>
-      <c r="AS28" s="22">
+      <c r="AS28" s="20">
         <v>16.787624999999998</v>
       </c>
-      <c r="AT28" s="22">
+      <c r="AT28" s="20">
         <v>16.733575000000002</v>
       </c>
       <c r="AV28">
         <v>0</v>
       </c>
-      <c r="AW28" s="22">
+      <c r="AW28" s="20">
         <v>1.5911761902492489</v>
       </c>
       <c r="AX28">
         <v>0</v>
       </c>
-      <c r="AY28" s="23">
+      <c r="AY28" s="22">
         <v>0.79558809512462447</v>
       </c>
     </row>
     <row r="29" spans="1:53">
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>16</v>
       </c>
       <c r="C29" s="2">
@@ -6429,7 +7109,7 @@
       <c r="O29" s="2">
         <v>3.0756899999999998</v>
       </c>
-      <c r="W29" s="25"/>
+      <c r="W29" s="24"/>
       <c r="X29" s="2">
         <v>16.594999999999999</v>
       </c>
@@ -6472,39 +7152,39 @@
       <c r="AN29">
         <v>2</v>
       </c>
-      <c r="AO29" s="22">
+      <c r="AO29" s="20">
         <v>10.4915</v>
       </c>
-      <c r="AP29" s="22">
+      <c r="AP29" s="20">
         <v>10.641249999999999</v>
       </c>
-      <c r="AQ29" s="22">
+      <c r="AQ29" s="20">
         <v>10.350375</v>
       </c>
-      <c r="AR29" s="22">
+      <c r="AR29" s="20">
         <v>10.52365</v>
       </c>
-      <c r="AS29" s="22">
+      <c r="AS29" s="20">
         <v>10.349675</v>
       </c>
-      <c r="AT29" s="22">
+      <c r="AT29" s="20">
         <v>10.331775</v>
       </c>
       <c r="AV29">
         <v>0</v>
       </c>
-      <c r="AW29" s="22">
+      <c r="AW29" s="20">
         <v>2.4590706062194037</v>
       </c>
       <c r="AX29">
         <v>0</v>
       </c>
-      <c r="AY29" s="23">
+      <c r="AY29" s="22">
         <v>0.61476765155485091</v>
       </c>
     </row>
     <row r="30" spans="1:53">
-      <c r="B30" s="25"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="2">
         <v>16.970099999999999</v>
       </c>
@@ -6544,7 +7224,7 @@
       <c r="O30" s="2">
         <v>3.58236</v>
       </c>
-      <c r="W30" s="26"/>
+      <c r="W30" s="25"/>
       <c r="X30" s="2">
         <v>16.6358</v>
       </c>
@@ -6587,39 +7267,39 @@
       <c r="AN30">
         <v>4</v>
       </c>
-      <c r="AO30" s="22">
+      <c r="AO30" s="20">
         <v>6.7886725000000006</v>
       </c>
-      <c r="AP30" s="22">
+      <c r="AP30" s="20">
         <v>7.0314599999999992</v>
       </c>
-      <c r="AQ30" s="22">
+      <c r="AQ30" s="20">
         <v>6.8615674999999996</v>
       </c>
-      <c r="AR30" s="22">
+      <c r="AR30" s="20">
         <v>6.8501300000000001</v>
       </c>
-      <c r="AS30" s="22">
+      <c r="AS30" s="20">
         <v>6.7278400000000005</v>
       </c>
-      <c r="AT30" s="22">
+      <c r="AT30" s="20">
         <v>6.6038274999999995</v>
       </c>
       <c r="AV30">
         <v>0</v>
       </c>
-      <c r="AW30" s="22">
+      <c r="AW30" s="20">
         <v>3.9601995065711435</v>
       </c>
       <c r="AX30">
         <v>0</v>
       </c>
-      <c r="AY30" s="23">
+      <c r="AY30" s="22">
         <v>0.49502493832139294</v>
       </c>
     </row>
     <row r="31" spans="1:53">
-      <c r="B31" s="25"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="2">
         <v>16.702200000000001</v>
       </c>
@@ -6659,7 +7339,7 @@
       <c r="O31" s="2">
         <v>3.1314000000000002</v>
       </c>
-      <c r="W31" s="24">
+      <c r="W31" s="23">
         <v>24</v>
       </c>
       <c r="X31" s="2">
@@ -6704,39 +7384,39 @@
       <c r="AN31">
         <v>8</v>
       </c>
-      <c r="AO31" s="22">
+      <c r="AO31" s="20">
         <v>4.2153999999999998</v>
       </c>
-      <c r="AP31" s="22">
+      <c r="AP31" s="20">
         <v>5.7330350000000001</v>
       </c>
-      <c r="AQ31" s="22">
+      <c r="AQ31" s="20">
         <v>5.7232150000000006</v>
       </c>
-      <c r="AR31" s="22">
+      <c r="AR31" s="20">
         <v>5.4237299999999999</v>
       </c>
-      <c r="AS31" s="22">
+      <c r="AS31" s="20">
         <v>5.4411025000000004</v>
       </c>
-      <c r="AT31" s="22">
+      <c r="AT31" s="20">
         <v>5.4042749999999993</v>
       </c>
       <c r="AV31">
         <v>0</v>
       </c>
-      <c r="AW31" s="22">
+      <c r="AW31" s="20">
         <v>4.1823620672269008</v>
       </c>
       <c r="AX31">
         <v>0</v>
       </c>
-      <c r="AY31" s="23">
+      <c r="AY31" s="22">
         <v>0.2613976292016813</v>
       </c>
     </row>
     <row r="32" spans="1:53">
-      <c r="B32" s="26"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="2">
         <v>16.932099999999998</v>
       </c>
@@ -6776,7 +7456,7 @@
       <c r="O32" s="2">
         <v>3.1196299999999999</v>
       </c>
-      <c r="W32" s="25"/>
+      <c r="W32" s="24"/>
       <c r="X32" s="2">
         <v>16.6112</v>
       </c>
@@ -6819,39 +7499,39 @@
       <c r="AN32">
         <v>16</v>
       </c>
-      <c r="AO32" s="22">
+      <c r="AO32" s="20">
         <v>3.9914825</v>
       </c>
-      <c r="AP32" s="22">
+      <c r="AP32" s="20">
         <v>3.9319025000000001</v>
       </c>
-      <c r="AQ32" s="22">
+      <c r="AQ32" s="20">
         <v>4.8894900000000003</v>
       </c>
-      <c r="AR32" s="22">
+      <c r="AR32" s="20">
         <v>3.2639800000000001</v>
       </c>
-      <c r="AS32" s="22">
+      <c r="AS32" s="20">
         <v>4.8656924999999998</v>
       </c>
-      <c r="AT32" s="22">
+      <c r="AT32" s="20">
         <v>4.8399600000000005</v>
       </c>
       <c r="AV32">
         <v>0</v>
       </c>
-      <c r="AW32" s="22">
+      <c r="AW32" s="20">
         <v>5.0795069534353354</v>
       </c>
       <c r="AX32">
         <v>0</v>
       </c>
-      <c r="AY32" s="23">
+      <c r="AY32" s="22">
         <v>0.25397534767176677</v>
       </c>
     </row>
     <row r="33" spans="2:51">
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <v>24</v>
       </c>
       <c r="C33" s="2">
@@ -6893,7 +7573,7 @@
       <c r="O33" s="2">
         <v>3.4926699999999999</v>
       </c>
-      <c r="W33" s="25"/>
+      <c r="W33" s="24"/>
       <c r="X33" s="2">
         <v>16.628399999999999</v>
       </c>
@@ -6936,39 +7616,39 @@
       <c r="AN33">
         <v>20</v>
       </c>
-      <c r="AO33" s="22">
+      <c r="AO33" s="20">
         <v>3.286505</v>
       </c>
-      <c r="AP33" s="22">
+      <c r="AP33" s="20">
         <v>3.8729799999999996</v>
       </c>
-      <c r="AQ33" s="22">
+      <c r="AQ33" s="20">
         <v>3.8780049999999999</v>
       </c>
-      <c r="AR33" s="22">
+      <c r="AR33" s="20">
         <v>3.18608</v>
       </c>
-      <c r="AS33" s="22">
+      <c r="AS33" s="20">
         <v>3.8942424999999998</v>
       </c>
-      <c r="AT33" s="22">
+      <c r="AT33" s="20">
         <v>3.8867350000000003</v>
       </c>
       <c r="AV33">
         <v>0</v>
       </c>
-      <c r="AW33" s="22">
+      <c r="AW33" s="20">
         <v>5.6502042187437853</v>
       </c>
       <c r="AX33">
         <v>0</v>
       </c>
-      <c r="AY33" s="23">
+      <c r="AY33" s="22">
         <v>0.23542517578099106</v>
       </c>
     </row>
     <row r="34" spans="2:51">
-      <c r="B34" s="25"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="2">
         <v>16.898099999999999</v>
       </c>
@@ -7008,7 +7688,7 @@
       <c r="O34" s="2">
         <v>3.4748000000000001</v>
       </c>
-      <c r="W34" s="26"/>
+      <c r="W34" s="25"/>
       <c r="X34" s="2">
         <v>16.5794</v>
       </c>
@@ -7051,39 +7731,39 @@
       <c r="AN34">
         <v>24</v>
       </c>
-      <c r="AO34" s="22">
+      <c r="AO34" s="20">
         <v>2.9545524999999997</v>
       </c>
-      <c r="AP34" s="22">
+      <c r="AP34" s="20">
         <v>3.2777500000000002</v>
       </c>
-      <c r="AQ34" s="22">
+      <c r="AQ34" s="20">
         <v>3.2930250000000001</v>
       </c>
-      <c r="AR34" s="22">
+      <c r="AR34" s="20">
         <v>3.3207825</v>
       </c>
-      <c r="AS34" s="22">
+      <c r="AS34" s="20">
         <v>3.302575</v>
       </c>
-      <c r="AT34" s="22">
+      <c r="AT34" s="20">
         <v>3.2938825</v>
       </c>
       <c r="AV34">
         <v>0</v>
       </c>
-      <c r="AW34" s="22">
+      <c r="AW34" s="20">
         <v>5.5178309216946646</v>
       </c>
       <c r="AX34">
         <v>0</v>
       </c>
-      <c r="AY34" s="23">
+      <c r="AY34" s="22">
         <v>0.19706539006052373</v>
       </c>
     </row>
     <row r="35" spans="2:51">
-      <c r="B35" s="25"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="2">
         <v>16.901800000000001</v>
       </c>
@@ -7123,7 +7803,7 @@
       <c r="O35" s="2">
         <v>3.4052799999999999</v>
       </c>
-      <c r="W35" s="24">
+      <c r="W35" s="23">
         <v>32</v>
       </c>
       <c r="X35" s="2">
@@ -7168,39 +7848,39 @@
       <c r="AN35">
         <v>28</v>
       </c>
-      <c r="AO35" s="22">
+      <c r="AO35" s="20">
         <v>3.0254325000000004</v>
       </c>
-      <c r="AP35" s="22">
+      <c r="AP35" s="20">
         <v>2.9566325</v>
       </c>
-      <c r="AQ35" s="22">
+      <c r="AQ35" s="20">
         <v>2.9317299999999999</v>
       </c>
-      <c r="AR35" s="22">
+      <c r="AR35" s="20">
         <v>2.9160325000000005</v>
       </c>
-      <c r="AS35" s="22">
+      <c r="AS35" s="20">
         <v>2.9578999999999995</v>
       </c>
-      <c r="AT35" s="22">
+      <c r="AT35" s="20">
         <v>2.9323125000000001</v>
       </c>
       <c r="AV35">
         <v>0</v>
       </c>
-      <c r="AW35" s="22">
+      <c r="AW35" s="20">
         <v>5.855037721091894</v>
       </c>
       <c r="AX35">
         <v>0</v>
       </c>
-      <c r="AY35" s="23">
+      <c r="AY35" s="22">
         <v>0.18296992878412169</v>
       </c>
     </row>
     <row r="36" spans="2:51">
-      <c r="B36" s="26"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="2">
         <v>16.894300000000001</v>
       </c>
@@ -7240,7 +7920,7 @@
       <c r="O36" s="2">
         <v>4.0793600000000003</v>
       </c>
-      <c r="W36" s="25"/>
+      <c r="W36" s="24"/>
       <c r="X36" s="2">
         <v>16.805199999999999</v>
       </c>
@@ -7283,39 +7963,39 @@
       <c r="AN36">
         <v>32</v>
       </c>
-      <c r="AO36" s="22">
+      <c r="AO36" s="20">
         <v>2.8511899999999999</v>
       </c>
-      <c r="AP36" s="22">
+      <c r="AP36" s="20">
         <v>2.7245775000000001</v>
       </c>
-      <c r="AQ36" s="22">
+      <c r="AQ36" s="20">
         <v>2.8042750000000001</v>
       </c>
-      <c r="AR36" s="22">
+      <c r="AR36" s="20">
         <v>2.7028650000000001</v>
       </c>
-      <c r="AS36" s="22">
+      <c r="AS36" s="20">
         <v>3.0014449999999995</v>
       </c>
-      <c r="AT36" s="22">
+      <c r="AT36" s="20">
         <v>2.7989549999999999</v>
       </c>
       <c r="AV36">
         <v>0</v>
       </c>
-      <c r="AW36" s="22">
+      <c r="AW36" s="20">
         <v>4.4630674887630111</v>
       </c>
       <c r="AX36">
         <v>0</v>
       </c>
-      <c r="AY36" s="23">
+      <c r="AY36" s="22">
         <v>0.12397409691008364</v>
       </c>
     </row>
     <row r="37" spans="2:51">
-      <c r="B37" s="24">
+      <c r="B37" s="23">
         <v>32</v>
       </c>
       <c r="C37" s="2">
@@ -7357,7 +8037,7 @@
       <c r="O37" s="2">
         <v>3.5340099999999999</v>
       </c>
-      <c r="W37" s="25"/>
+      <c r="W37" s="24"/>
       <c r="X37" s="2">
         <v>16.734200000000001</v>
       </c>
@@ -7400,39 +8080,39 @@
       <c r="AN37">
         <v>36</v>
       </c>
-      <c r="AO37" s="22">
+      <c r="AO37" s="20">
         <v>3.7404375000000001</v>
       </c>
-      <c r="AP37" s="22">
+      <c r="AP37" s="20">
         <v>3.8091524999999997</v>
       </c>
-      <c r="AQ37" s="22">
+      <c r="AQ37" s="20">
         <v>3.2854175000000003</v>
       </c>
-      <c r="AR37" s="22">
+      <c r="AR37" s="20">
         <v>3.4775925000000001</v>
       </c>
-      <c r="AS37" s="22">
+      <c r="AS37" s="20">
         <v>2.8479074999999998</v>
       </c>
-      <c r="AT37" s="22">
+      <c r="AT37" s="20">
         <v>3.2813000000000003</v>
       </c>
       <c r="AV37">
         <v>0</v>
       </c>
-      <c r="AW37" s="22">
+      <c r="AW37" s="20">
         <v>4.0500732982641923</v>
       </c>
       <c r="AX37">
         <v>0</v>
       </c>
-      <c r="AY37" s="23">
+      <c r="AY37" s="22">
         <v>0.10125183245660481</v>
       </c>
     </row>
     <row r="38" spans="2:51">
-      <c r="B38" s="25"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="2">
         <v>17.0457</v>
       </c>
@@ -7472,7 +8152,7 @@
       <c r="O38" s="2">
         <v>3.6071499999999999</v>
       </c>
-      <c r="W38" s="26"/>
+      <c r="W38" s="25"/>
       <c r="X38" s="2">
         <v>16.838999999999999</v>
       </c>
@@ -7515,39 +8195,39 @@
       <c r="AN38">
         <v>40</v>
       </c>
-      <c r="AO38" s="22">
+      <c r="AO38" s="20">
         <v>4.1218575</v>
       </c>
-      <c r="AP38" s="22">
+      <c r="AP38" s="20">
         <v>4.0581825</v>
       </c>
-      <c r="AQ38" s="22">
+      <c r="AQ38" s="20">
         <v>3.7873874999999999</v>
       </c>
-      <c r="AR38" s="22">
+      <c r="AR38" s="20">
         <v>3.9793175000000005</v>
       </c>
-      <c r="AS38" s="22">
+      <c r="AS38" s="20">
         <v>3.8533949999999999</v>
       </c>
-      <c r="AT38" s="22">
+      <c r="AT38" s="20">
         <v>3.8134924999999997</v>
       </c>
       <c r="AV38">
         <v>0</v>
       </c>
-      <c r="AW38" s="22">
+      <c r="AW38" s="20">
         <v>4.1755962430745752</v>
       </c>
       <c r="AX38">
         <v>0</v>
       </c>
-      <c r="AY38" s="23">
+      <c r="AY38" s="22">
         <v>9.489991461533126E-2</v>
       </c>
     </row>
     <row r="39" spans="2:51">
-      <c r="B39" s="25"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="2">
         <v>17.005299999999998</v>
       </c>
@@ -7587,7 +8267,7 @@
       <c r="O39" s="2">
         <v>3.55755</v>
       </c>
-      <c r="W39" s="24">
+      <c r="W39" s="23">
         <v>50</v>
       </c>
       <c r="X39" s="2">
@@ -7632,39 +8312,39 @@
       <c r="AN39">
         <v>44</v>
       </c>
-      <c r="AO39" s="22">
+      <c r="AO39" s="20">
         <v>3.9979499999999999</v>
       </c>
-      <c r="AP39" s="22">
+      <c r="AP39" s="20">
         <v>4.0581825</v>
       </c>
-      <c r="AQ39" s="22">
+      <c r="AQ39" s="20">
         <v>4.0522774999999998</v>
       </c>
-      <c r="AR39" s="22">
+      <c r="AR39" s="20">
         <v>3.8251900000000001</v>
       </c>
-      <c r="AS39" s="22">
+      <c r="AS39" s="20">
         <v>3.7498250000000004</v>
       </c>
-      <c r="AT39" s="22">
+      <c r="AT39" s="20">
         <v>3.7393749999999999</v>
       </c>
       <c r="AV39">
         <v>0</v>
       </c>
-      <c r="AW39" s="22">
+      <c r="AW39" s="20">
         <v>4.269373052337067</v>
       </c>
       <c r="AX39">
         <v>0</v>
       </c>
-      <c r="AY39" s="23">
+      <c r="AY39" s="22">
         <v>8.8945271923688896E-2</v>
       </c>
     </row>
     <row r="40" spans="2:51">
-      <c r="B40" s="26"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="2">
         <v>17.075299999999999</v>
       </c>
@@ -7704,7 +8384,7 @@
       <c r="O40" s="2">
         <v>3.9500099999999998</v>
       </c>
-      <c r="W40" s="25"/>
+      <c r="W40" s="24"/>
       <c r="X40" s="2">
         <v>16.733699999999999</v>
       </c>
@@ -7747,22 +8427,22 @@
       <c r="AN40">
         <v>48</v>
       </c>
-      <c r="AO40" s="22">
+      <c r="AO40" s="20">
         <v>3.9101349999999999</v>
       </c>
-      <c r="AP40" s="22">
+      <c r="AP40" s="20">
         <v>3.9087750000000003</v>
       </c>
-      <c r="AQ40" s="22">
+      <c r="AQ40" s="20">
         <v>3.7707050000000004</v>
       </c>
-      <c r="AR40" s="22">
+      <c r="AR40" s="20">
         <v>3.6834049999999996</v>
       </c>
-      <c r="AS40" s="22">
+      <c r="AS40" s="20">
         <v>3.8168099999999998</v>
       </c>
-      <c r="AT40" s="22">
+      <c r="AT40" s="20">
         <v>3.661905</v>
       </c>
       <c r="AV40" t="e">
@@ -7779,7 +8459,7 @@
       </c>
     </row>
     <row r="41" spans="2:51">
-      <c r="B41" s="24">
+      <c r="B41" s="23">
         <v>50</v>
       </c>
       <c r="C41" s="2"/>
@@ -7801,7 +8481,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="W41" s="25"/>
+      <c r="W41" s="24"/>
       <c r="X41" s="2">
         <v>16.783799999999999</v>
       </c>
@@ -7876,7 +8556,7 @@
       </c>
     </row>
     <row r="42" spans="2:51">
-      <c r="B42" s="25"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -7896,7 +8576,7 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="W42" s="26"/>
+      <c r="W42" s="25"/>
       <c r="X42" s="2">
         <v>16.646000000000001</v>
       </c>
@@ -7971,7 +8651,7 @@
       </c>
     </row>
     <row r="43" spans="2:51">
-      <c r="B43" s="25"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -8026,7 +8706,7 @@
       </c>
     </row>
     <row r="44" spans="2:51">
-      <c r="B44" s="26"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -8183,7 +8863,7 @@
       </c>
     </row>
     <row r="93" spans="1:36">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -8228,7 +8908,7 @@
       <c r="O93" s="1">
         <v>48</v>
       </c>
-      <c r="V93" s="24" t="s">
+      <c r="V93" s="23" t="s">
         <v>1</v>
       </c>
       <c r="W93" s="3" t="s">
@@ -8275,7 +8955,7 @@
       </c>
     </row>
     <row r="94" spans="1:36">
-      <c r="A94" s="25"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="1">
         <v>4</v>
       </c>
@@ -8292,7 +8972,7 @@
       <c r="M94" s="14"/>
       <c r="N94" s="14"/>
       <c r="O94" s="14"/>
-      <c r="V94" s="25"/>
+      <c r="V94" s="24"/>
       <c r="W94" s="1">
         <v>4</v>
       </c>
@@ -8311,7 +8991,7 @@
       <c r="AJ94" s="14"/>
     </row>
     <row r="95" spans="1:36">
-      <c r="A95" s="25"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="1">
         <v>8</v>
       </c>
@@ -8328,7 +9008,7 @@
       <c r="M95" s="14"/>
       <c r="N95" s="14"/>
       <c r="O95" s="14"/>
-      <c r="V95" s="25"/>
+      <c r="V95" s="24"/>
       <c r="W95" s="1">
         <v>8</v>
       </c>
@@ -8347,7 +9027,7 @@
       <c r="AJ95" s="14"/>
     </row>
     <row r="96" spans="1:36">
-      <c r="A96" s="25"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="1">
         <v>16</v>
       </c>
@@ -8403,7 +9083,7 @@
         <f t="shared" si="16"/>
         <v>3.4627049999999997</v>
       </c>
-      <c r="V96" s="25"/>
+      <c r="V96" s="24"/>
       <c r="W96" s="1">
         <v>16</v>
       </c>
@@ -8461,7 +9141,7 @@
       </c>
     </row>
     <row r="97" spans="1:164">
-      <c r="A97" s="26"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="1">
         <v>24</v>
       </c>
@@ -8517,7 +9197,7 @@
         <f t="shared" si="18"/>
         <v>3.7591125000000001</v>
       </c>
-      <c r="V97" s="26"/>
+      <c r="V97" s="25"/>
       <c r="W97" s="1">
         <v>24</v>
       </c>
